--- a/survey/data/survey_data.xlsx
+++ b/survey/data/survey_data.xlsx
@@ -111,12 +111,7 @@
     <t>Q77</t>
   </si>
   <si>
-    <t>This project is about understanding the naming convention of pre-trained deep learning models (PTMs). We have measurements of naming practices on Hugging Face and we would like to understand the users' perspectives as well. There are also some questions about model interoperability (ONNX).
-This survey has 3 pages: Demographics (1 minute), Naming Conventions (~4 minutes), and Model Interoperability (ONNX) use (~3 minutes).
-All of the questions are optional, but we would appreciate it if you fill out all that you can. To thank you for your participation, a $10 compensation is available. If you want, enter your email at the end for compensation. It will not be linked to your responses.
-Our study is approved by Purdue's Institutional Review Board (#2022-606). All data will be anonymized to ensure privacy.
-If you have any concerns, please feel free to contact Wenxin Jiang (jiang784@purdue.edu), Prof. James C. Davis (davisjam@purdue.edu), or the Purdue Institutional Review Board (irb@purdue.edu).
-Do you consent to participate in this study?</t>
+    <t>Do you consent to participate in this study?</t>
   </si>
   <si>
     <t>Do you interact regularly with a machine learning model exchange platform such as Hugging Face, PyTorch Hub, or an internal registry?</t>
@@ -1691,11 +1686,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2048,7 +2046,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2170,7 +2168,7 @@
       <c r="H3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2268,7 +2266,7 @@
       <c r="H4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -3444,7 +3442,7 @@
       <c r="H16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -3542,7 +3540,7 @@
       <c r="H17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -4228,7 +4226,7 @@
       <c r="H24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -4326,7 +4324,7 @@
       <c r="H25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -4620,7 +4618,7 @@
       <c r="H28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -4718,7 +4716,7 @@
       <c r="H29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -5208,7 +5206,7 @@
       <c r="H34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -5502,7 +5500,7 @@
       <c r="H37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -6972,7 +6970,7 @@
       <c r="H52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -7168,7 +7166,7 @@
       <c r="H54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -7266,7 +7264,7 @@
       <c r="H55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -7364,7 +7362,7 @@
       <c r="H56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -8540,7 +8538,7 @@
       <c r="H68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J68" s="1" t="s">
@@ -8638,7 +8636,7 @@
       <c r="H69" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J69" s="1" t="s">
@@ -9226,7 +9224,7 @@
       <c r="H75" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="I75" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J75" s="1" t="s">
@@ -9324,7 +9322,7 @@
       <c r="H76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I76" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J76" s="1" t="s">
@@ -9814,7 +9812,7 @@
       <c r="H81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J81" s="1" t="s">
@@ -10010,7 +10008,7 @@
       <c r="H83" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J83" s="1" t="s">
@@ -10696,7 +10694,7 @@
       <c r="H90" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J90" s="1" t="s">
@@ -10990,7 +10988,7 @@
       <c r="H93" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J93" s="1" t="s">
@@ -11284,7 +11282,7 @@
       <c r="H96" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J96" s="1" t="s">
@@ -11382,7 +11380,7 @@
       <c r="H97" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I97" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J97" s="1" t="s">
@@ -11578,7 +11576,7 @@
       <c r="H99" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="I99" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J99" s="1" t="s">
@@ -11970,7 +11968,7 @@
       <c r="H103" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="I103" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J103" s="1" t="s">
@@ -12068,7 +12066,7 @@
       <c r="H104" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="I104" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J104" s="1" t="s">
@@ -12166,7 +12164,7 @@
       <c r="H105" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="I105" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J105" s="1" t="s">
@@ -12460,7 +12458,7 @@
       <c r="H108" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="I108" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J108" s="1" t="s">
@@ -12754,7 +12752,7 @@
       <c r="H111" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="I111" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J111" s="1" t="s">
@@ -13146,7 +13144,7 @@
       <c r="H115" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="I115" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J115" s="1" t="s">
@@ -13636,7 +13634,7 @@
       <c r="H120" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I120" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J120" s="1" t="s">
@@ -14028,7 +14026,7 @@
       <c r="H124" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="I124" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J124" s="1" t="s">
@@ -14126,7 +14124,7 @@
       <c r="H125" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="I125" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J125" s="1" t="s">
@@ -14224,7 +14222,7 @@
       <c r="H126" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="I126" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J126" s="1" t="s">
@@ -14420,7 +14418,7 @@
       <c r="H128" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="I128" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J128" s="1" t="s">
@@ -14714,7 +14712,7 @@
       <c r="H131" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="I131" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J131" s="1" t="s">
@@ -14812,7 +14810,7 @@
       <c r="H132" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="I132" s="3" t="s">
         <v>68</v>
       </c>
       <c r="J132" s="1" t="s">
